--- a/Pertemuan 12/pantai_losari_review.xlsx
+++ b/Pertemuan 12/pantai_losari_review.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Menikmati pantai yg sudah ditata oleh Pemprov SulSel dengan tampilan di seberang pantai terdapat Masjid dengan 1000 kubahnya... Dimalam hari kita dimanjakan dengan kuliner Pusang Apek, Jagung Bakar yg di serut dan aneka makanann lainnya...</t>
+          <t>Makassar Bisa Tonji,...Demikian Tagline yg biasa dengar..Begitu banyak Spot Wisata Ngopi n Kuliner, .</t>
         </is>
       </c>
     </row>
@@ -692,7 +692,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sepulang dari Kendari dalam rangka Hari Pangan Sedunia ke 39 kami transit d Makassar, kami mnyempatkan diri berkunjung k Pantai Losari</t>
+          <t>Menikmati pantai yg sudah ditata oleh Pemprov SulSel dengan tampilan di seberang pantai terdapat Masjid dengan 1000 kubahnya... Dimalam hari kita dimanjakan dengan kuliner Pusang Apek, Jagung Bakar yg di serut dan aneka makanann lainnya...</t>
         </is>
       </c>
     </row>
@@ -819,9 +819,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Pantai Losari yg menjadi salah satu icon kota Makassar. Wajib dikunjungi jika ke Makassar
-Untuk yg ingin menikmati sunset sambil menikmati pisang epe khas kota Anging mammiri ini.
-Banyak pedagang kaki lima yang berjualan disekitar pantai. Dari sini kita juga bisa shalat di masjid terapung karena lokasinya berada dlm kawasan pantai losari</t>
+          <t>Sepulang dari Kendari dalam rangka Hari Pangan Sedunia ke 39 kami transit d Makassar, kami mnyempatkan diri berkunjung k Pantai Losari</t>
         </is>
       </c>
     </row>
@@ -955,6 +953,744 @@
         </is>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>benedictusvenus</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Sunset disini selalu memukau, terlebih setelah adanya bangunan masjid yang baru, keren banget.
+Icon wajib dikunjungi</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>elvinadiah</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Kalau ke makasar, jangan lewatkan senja yang bisa dinikmati di pinggir pantai losari. Nikmati sambil makan pisang epe.
+Jika beruntung akan mendapatkan golden sunset dan perpaduan warna yang sangat indah sekali.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Nong</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Hari ahad atau libur cukup ramai sekali dan banyak pedagang asongan,permainan yg klasik serta bebas bermain dengan pencinta hewan yg dilindungi karena jinak</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Halid T</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Sekarang Pantai Losari sudah bagus dan tertata dengan rapih, fasilitas lebih banyak dan masih terus dikembangkan</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>sesri</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Lokasi sebetulnya enak buat jalan sehat dan menikmati matahari di pagi hari, tapi masalah kebersihan masih harus ditingkatkan untuk menambah kenyamanan</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Lewipurn0368</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Pantai ini cukup indah dimana didepan pantsi ada tanah reklamasi yang terdapat masjid yg indah, ramai pengunjung makan jajanan dan berfoto foto sambil bersantai</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Lius D</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Sangat memuaskan bersantai dan jalan jalan dia arena pantai losari terutama pada malam hari dan pagi hari</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>darmawan1965</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Pantai losari memang merupakan tempat tujuan wisata bagi pendatang atau tempat nongkrong nongkrong buat penduduk setempat. Kalau siang hari memang panas sekali karena pohon hanya ditanam di bagian pinggir anjungan anjungan. Tp kalau malam, banyak sekali gerobak gerobak makanan dan minuman disitu. Berbagai makanan khas sulawesi selatan seperti es paku butung, saraba atau pisang epek banyak dijual disana. Pemandangan ke arah laut bagus, cukup bersih.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ray rasyadi</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Pemandangan laut yg sangat indah. Cocok untuk refreshing. Terletak di pusat kota dengan lokasi yg strategis dan lengkap dengan sarana ibadah dengan adanya mesjid terapung. Lokasi wisata kuliner yg lengkap dengan jajanan pasar tradisional dan nusantara yg sangat populer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>ganjar kusmanegara</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Salah satu obyek wisata yang menjadi tujuan destinasi wisata bila berkunjung ke makasar, terdapat banyak tempat foto dengan berbagai macam view dan Banyak terdapat stand makanan</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>lydiaulansari</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Pantai losari merupakan salah satu destinasi wisata di makassar
+Parkiran yang disediakan lumayan luas, dan tidak dipungut biaya
+Areanya luas untuk anak2 bermain berlarian, org dewasa bercengkrama, banyak penjual makanan maupun mainan anak seperti balon.
+Paling suka beli pisang epe durian hmm yummy.
+Banyak juga artis konser musik disini jika pas ada event
+Duduk santai disini sambil menikmati angin pantai yg semilir, nikmat Allah yang nyata 👍</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>devi</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Saya adalah pendatang di Sulsel dan pantai Losari adalah daya tarik tersendiri bagi saya. Sekarang, pantai losari sudah sangat nyaman untuk dikunjungi, sekedar jalan2 atau menghabiskan waktu bersama keluarga. Lingkungannya bersih dan tertata dengan baik. Tersedia pula ragam kuliner yang nikmat. Pokoknya tiap kali ke Makassar, wajib mengunjungi Pantai Losari.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Zulkarnainh Hamson</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Pada jaman penjajahan Belanda pantai Losari sudah dikenal sebagai salah satu tempat terbaik menikmati matahari terbenam</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>bayu</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Sunset di pantai Losari salah satu yang terbaik di Indonesia, tersedia jajanan pisang epek di pinggir jalan sekitaran pantai, dan tidak jauh dari pusat souvernir Makassar</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Martin Andreas</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Ekspetasi pas dijakarta losari bakal bagus banget. Realitanya biasa aja, sama aja kaya ancol, bahkan lebih buruk menurut saya. Terlalu ramai orang jualan, banyak sampah</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>holimanchandra</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Menurut saya tempat ini cukup Baik untuk wisatawan yang mencari Cemilannya atau makanan khas dari Makasar seperti pisang Gepe, Atau minuman khas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Ihwana A</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Salah satu pantai yang indah di sulawesi selatan dan dikunjungi oleh wisatawan mancanegara dengan matahari yang indah di sore hari</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Imanche AlRachman</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Jangan bilang bahwa anda itu petualang, kalau anda tidak pernah; Atau sama sekali tidak tahu..., Apalagi samar-samar, malahan tidak pernah dengar yang namanya 'pantai losari'??? Hmmm...., kelaut aja lo!! Apaa...?? klautt? Bukannya kepantai??
+Hmm, yaaa, laut... Laut losari!!. Jangan pernah kebayang kalau pantai losari itu adalah tempat wisata pesisir laut seperti banyak pantai-pantai khas lainnya dinegeri indonesia.. Mungkin saja dulunya sih Iya.namanya.pantai losari.
+Pola pembangunan dan pengembangan kota makassar beberapa tahun kebelakang ini yang semakin massif, dan seolah-olah ingin menghilangkan</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Eliana Maria</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Di tempat ini tidak ada apa2, selain alun2 terbuka untuk jogging atau duduk2. Untuk yang baru pernah ke Makassar, boleh lah ambil foto di tulisan "PANTAI LOSARI" dengan background mesjid 100 kubah. Selain itu tidak ada apa2 lagi di sini. Pemandangan pantainya juga kurang bagus, karena terhalang daratan yang ada mesjid nya, sehingga pemandangan nya tidak lepas ke laut.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>evi d</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Tempat yg wajib didatangi ketika di makassar....jangan lupa icip2 pisang epe setelah puas dg suasana pantai yaaa....</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Asrisandi</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Siapa sih yg ga tau pantai losari salah satu icon kota makassar tiap tahun baru pasti rame ditempat ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>iwe</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Ini adalah tempat yang wajib dikunjungi wisatawan dari dalam dan luar. Selain banyak pilihan kuliner, karena Losari adalah ikon Kota Makassar.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Merry S</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>sepanjang jalan kuliner lokal....pisang eppe dkk, segala macam rasa....banyak jajanan khas, toko oleh2, dll....</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>vendychen</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Salah satu tempat wisata yg wajib dikunjungi oleh para wisatawan yg bereda di makassar.
+Sea view is very beautifull, especially sunset moment
+Tersedia banyak sekali penjual makanan saat sore dan malam hari</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>isma chymma</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Banyak spot2 tulisan daerah yg bisa dikunjungi ...semakin bagus penampakan pantai nya tp sampah dilautnya masih banyak ...yg mencirikan katanya makassar tidak rantasa ...Tp nyata masih banyak warga buang sampah sembarangan !!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>dewnat</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Banyak spot yg bs dikunjungi. Ajak keluarga berkunjung ke pantai losari. Tempat yg luas cocok utk anak2 lari2an</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>dowsanphsp</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Banyak tempat untuk spot foto, yaitu tulisan-tulisan jenis suku-suku yang ada di Provinsi Sulawesi Selatan ini, yaitu Makassar, Bugis, Mandar dan Toraja. Banyak aneka jajanan dan makanan juga.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>manuelovera</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>pantai losari sudah kehilangan keindahannya, bagusnya diganti taman losari kesan pantai sudah hilang. kotor jorok bau tidak teratur dan tertata rapih. Saya rindu pantai losari jaman saya kecil pembangunan dimana mana terkesan semrawut</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Fathurrahman</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>tempat ini merupakan pantai terbaik di Makassar karena tempat ini merupakan "ICON" publik yang menjadi ciri khasnya pantai ini... tempat ini sebagai obyek wisataa bisa juga di jadikan tempat olharga,festival,DLL.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Kartika S</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Pantai Losari merupakan salah satu icon kota Makassar, tak lengkap rasnya bila kita berkunjung ke Makassar tanpa mengunjungi pantai Losari, disepanjang pantai ini banyak pedagang yang berjualan pisang epe, pisang ijo dll.
+Selain untuk bersantai dan menikmati hidangan aneka pisang, kita juga bisa menikmati pemandangan matahari terbenam dari sekitar pantai ini, wow pastinya seru ya sambil makan dan sambil menikmati pemandangan alam.
+Sampai jumpa di ulasan saya selanjutnya ya teman2 🏝</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>ANSHAR</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Sanggar peppenya enak dan tempatnya luas , tempat santai santai juga banyak dan yang kurangnya itu sampah sampah di laut mohon dibersihkan</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>sriirawati</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>skrg pantai losari bertambah byk spot utk foto,apalg skrg ada masjid 99kubah yg jd latar belakangx .hax sj kurang bersir krn kesadaran pengunjung yg kurang empaty thd kebersihan .</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Syaiful BS</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Kalo kalian ke Makassar wajib banget kesini yah.
+Cobain pisang epenyaa juga yaah, malem minggu makin rame parah disini hihi</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Ary Wibisono</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Kami tiba disana pada siang hari sehingga cukup panas dan kebetulan masih ada acara disitu sehingga suasana sangat ramai. Banyak spot foto disitu namun sayangnya kami tidak bisa maksimal mangambil foto disitu. Apabila kesitu, sebaiknya sore hari atau malam sehingga tidak panas dan mungkin lebih bagus karena banyak lampu yang mendukung.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>aswar l</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Bagus suasananya di malam hari. Ramai dan banyak orang banyak jajanan juga disekitaran pantai losari.. Tapi sayangnya banyak sampah di sekitarannya</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Priojati A</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Bila ingin menghabiskan waktu di malam hari menunggu kantuk tiba tidak ada salahnya kesini untuk sekedar menikmati suasana laut dengan ditemani cemilan serta kopi menambah nikmat suasana ditambah pantai ini untuk umum sehingga free of charge</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>674hidayata</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Hari terakhir di Makassar sempatkan maen ke pantai Losari. Pantai Losari skrg lebih cantik dan tertata rapi. Kt bisa duduk di pinggir pantai Losari sambil menikmati pisang epe dan sarabba.demikian juga anjungan pantai Losari jadi spot foto yg keren . Jalur lalulintas jadi nya searah, mungkin untuk mengatasi macet, jadi lebih tertata rapi. kalo ke Makassar skrg, wajib mampir ke pantai Losari</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Japrudin M</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Tempatnya bagus pisat kota hanya sayang tertutupi bangunan lain yang berada di depan pantai losari..</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>smileymella</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Datang ke sini saat ada Festival F8 Makassar, tempat hiburan rakyat Makassar dimana masyarakat bisa berkunjung untuk hiburan, belanja, kuliner, sambil menikmati pemandangan Pantai Losari di malam hari. Pemandangannya indah karena Pantai Losari dekat dengan kota Makassar.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Imam Ahmad</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Pertama kali menginjakkan kaki di kota Makassar. Ternyata sama seperti kota besar lainnya. Destinasi pertama kali adalah pantai Losari. Waktu itu senja mulai meredup. Waktu yang tepat untuk melihat sunset. Subhanallah.. tempat terbaik untuk melihat sunset dengan background masjid 99 kubah yang sedang dibangun. Ditambah beberapa anjungan dari beberapa suku yg ada di Makassar. Dari mulai masjid terapung, tempat makan dan minum, parkir yg memadai.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>mulmul</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Icon Makassar yg satu ini menurutku bagus, n sunset nya itu cantik banget sayangnya kurang d perhatikan untuk kebersihannya, pada saat itu banyak sampah n air nya itu kotor dn banyak sampah yg terapung n limbah yg mencemari air d tempat tersebut, menurutku d sayangkan untuk tempat sebagus ini untuk melihat sunset, d lingkungannya masih kotor n belum tertata dengan baik, n pengalaman jg, saya pengen buang sampah ntah tempat sampahnya tidak ad atau jalan sendiri saya tidak tahu jadi pada saat itu saya buang d motor saya. Jadi tolong kalau datang Ki ke anjungan pantai Losari jaga Ki selalu kebersihannya.</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>natasya2000</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Subhannallah..Bagus Banget...untuk kita bisa foto" dgn tulisan " Makassar, City Of Makassar, Bugis, Pantai Losari, Toraja"..ada Mesjid 99 Kubah &amp; Mesjid Amirul Mukminin..Alhamdulillah...Tolong dijaga keindahan Pantai Losari &amp; sekitarnya...Muachhh...</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Er_</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Sore itu suasana di Losari begitu ramai dengan pengunjung, yah dikarenakan memang hari itu hari Minggu sore. Pemandangan yang saat itu saya lihat agak sedikit terganggu dikarenakan ada proyek disekitaran pantai. Pantai yang menjadi icon kota Makassar ini begitu indah jika dinikmati sore hari di akhir pekan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Ningrum02</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Saya sempat menikmati sore di Losari sejenak sebelum pulang ke Jakarta. Kemarin itu sedang ada pembangunan mesjid dengan 99 kubah kalo saya tdk salah menyebutnya begitu. Suasana cukup ramai, ada robot, badut untuk anak2 dan ada juga yang menawarkan foto (fotografer keliling).</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Roflyanes W</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Satu wilayah yang boleh dibilang lengkap, ada banyak jajanan, ada tempat parkir, ada tempat poto poto yang bagus.
+Bisa coba, pisang epe, bakso ati raja, konro dan coto yang ada disekitar pantai.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Zulvi W</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Pantai selalu bikin aku ngerasa melow dan romantis. Pantai nya bersih, ada beberapa bangunan baru yg belum selesai. Banyak makanan khas makassar yg harus dicoba, pisang epe, es pisang hijau...</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>imam M</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Sy perdana mengunjungi pantai losari thn 2011 dan terakhir 2018.trlihat perbedaan nya sgt luar biasa.skrg lbh tertata rapi di dekat sana jg sdh banyak mall dan hotel,kemudian jg kabar trbaru akan dibangun jalan diatas sana... kerennn...</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Dreamer778401</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Sudah beberapa kali ke pantai losari, tapi kemarin ke pantai losari ada event.. Baguss eventnya byk orang dan bykjajanan di sepanjang pantai losari sampe akses jalanan macet sekali. Tapi menyenangkan lah. Sukses sllu</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Puja Xrm Romadlon</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Sore menjelang malam saya datang ke sini , suasanya panas sekali dan viewnya tdk begitu bagus krn ada reklamasi</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Pipit S</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Cocok kalo sore hari nongkrong di sekitar pantai sambil makan pisang epe dan saraba. Bisa juga shalat di masjid terapung di pantai Losari.</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Tri A</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Kenapa tempat itu wajib dikunjungi kalau lagi berlibur kemakassar ? Karna pantai losari salah 1 tempat aikon makassar disana juga banyak menjual makanan khas makassar, dari pisang epe , pisang ijo dan masih banyak lagi</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Nur H</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Kalau berkunjung ke ujung pandang jangan lupa ke pantai losari, sangat dekat dengan pusat kota dan sepanjang pantai kuliner yang memanjakan lidah. Pisang epek gula merah, konro, coto begitu menggoda untuk dinikmati. jangan ketinggalan</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>appick</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Pemandangan yg indah dan jajanan yg d sajikan oleh para pedagang..dan berbagai wahana bgtupun dngan bnyakx patung2 para pejuang dan transportasi has daerah makassar</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Nanang Koswara</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ramai pengunjung di sore dan malam hari. Banyak pedagang. Cocok untuk bersantai.
+Terdapat Masjid Apung.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>darmawan1965</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Terletak di pantai, dekat dengan pusat penjualan oleh oleh dan souvenir khas makasar. Ada beberapa spot foto yg bagus. Disarankan untuk mengunjungi tempat ini, pagi atau sore, karena diatas jam 10, sangat panas dan terik sekali. Kalau pagi banyak rumah makan dan warung yg menawarkan aneka menu sarapan. Mulai dari bubur sampai nasi kuning. Kalau malam, banyak warung untuk makan. Bersih, tertib, tempat parkir banyak</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Agus_Sp2000</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Pantainya cocok buat menikmati indahnya sunset sambil makan pisang pepe dan minum teh telor, sayang luasnya laut terhalangi oleh reklamasi</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Sightseer814949</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Banyaksekali pedagang asingan disini, untuk nongkrong itu enak karena bisa liat sunset tapi pengamen anak2nya agak menganggu kenyamanan</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Christiena A</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Ternyata pantai losari itu bukan pantai seperti bayangan saya pertama kali 😆😆 lebih seperti pinggir pantai yg ada tempat untuk pejalan kaki, spot foto, jajanan khas makassar. Tidak bisa bermain pasir disana, air berwarna coklat, jika kesana saat siang hari sangat panas. Disini ada beberapa spot untuk foto. Di sebrang banyak toko oleh2, makanan, hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Konadi G</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Keren, sebagai objek wisata. Konsep penataan yang relatif baik. Sebagai sebuah destinasi yang menampilkan panorama laut yang bagus. Terimakasih kepada Sdri Zhakila sebagai IRO yg telah berkomunikasi dengan baik kepada kami</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>noviwre</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>kalau anda berkunjung ke Makassar (Ujung Pandang) dan belum sempat mampir ke Pantai Losari, artinya anda belum menikmati Makassar. Di subuh/pagi dapat menjadi tempat jogging sambil menikmati udara segar pantai, dan di sore menjelang malam, dapat menikmati sunset sambil menikmati jajanan khas makassar, dan bagi yang ingin beribadah, tersedia Mesjid Terapung</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
